--- a/docs/odh/shr-core-Evidence-model.xlsx
+++ b/docs/odh/shr-core-Evidence-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="49">
   <si>
     <t>Path</t>
   </si>
@@ -156,11 +156,15 @@
     <t>shr-core-Evidence-model.domainResource</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DomainResource-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DomainResource-model {[]} {[]}
 </t>
   </si>
   <si>
     <t>Parent class for any item in clinical or administrative health-related system. A DomainResource can belong to a single person's health record, or represent an entity that surfaces in multiple records, such as organizations, providers, payments, decision support artifacts, etc.</t>
+  </si>
+  <si>
+    <t>Parent class for any item in clinical or administrative health-related system. A DomainResource can belong to a single person's health record, or represent an entity that surfaces in multiple records, such as organizations, providers, payments, decision support artifacts, etc.
+Note to FHIR implementers: SHR includes Status and Identifier fields on DomainResource because these two attributes occur in almost every FHIR resource. The most significant exception are 3 or 4 resources that use an 'active' flag instead of coded status value. There is no apparent pattern to this inconsistency. FHIR resources that use a coded status have active and inactive as status values. In the spirit of providing a consistent object-oriented logical model for FHIR, SHR uses status across all domain resources.</t>
   </si>
 </sst>
 </file>
@@ -309,7 +313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -683,7 +687,7 @@
         <v>47</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
